--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value712.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value712.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.379417897083853</v>
+        <v>1.349835276603699</v>
       </c>
       <c r="B1">
-        <v>2.249513589779809</v>
+        <v>2.689387798309326</v>
       </c>
       <c r="C1">
         <v>-1</v>
       </c>
       <c r="D1">
-        <v>1.657800507251258</v>
+        <v>1.549157023429871</v>
       </c>
       <c r="E1">
-        <v>0.8320533202348407</v>
+        <v>0.9220970869064331</v>
       </c>
     </row>
   </sheetData>
